--- a/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-patient.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-patient.xlsx
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>Japan</t>
+    <t>JP</t>
   </si>
   <si>
     <t>Description</t>

--- a/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-patient.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-patient.xlsx
@@ -553,8 +553,10 @@
   <si>
     <t>IDの名前空間を表す Patient.identifier.system と ID値そのものを表す Patient.identifier.value の組み合わせとして表現する。  
 Patient.identifier.system には、urn:oid:1.2.392.100495.20.3.51.医療機関識別OID番号を使用する。  
-医療機関識別OID番号は患者IDの発行者である医療機関の識別するものである。保険医療機関の場合、都道府県番号２桁から始まる10桁の医療機関コードまたは、特定健診・特定保健指導機関の医療機関コード10桁の先頭に１をつけた11桁とする。医療機関コードの詳細については[こちらのリンク](StructureDefinition-jp-organization.html#医療機関コード)を参照すること。  
-例：医療機関コード「1312345670」の場合「urn:oid:1.2.392.100495.20.3.51.11312345670」  
+医療機関識別OID番号は患者IDの発行者である機関の医療機関コード（１０桁）の先頭に１をつけた11桁とする。医療機関コード（１０桁）の詳細は[こちらのリンク](StructureDefinition-jp-organization.html#医療機関コード１０桁)を参照すること。  
+```
+例：医療機関コード「1312345670」の場合「urn:oid:1.2.392.100495.20.3.51.11312345670」
+```
 なお、urn:oid:1.2.392.100495.20.3.51の部分は、「[処方情報 HL7FHIR 記述仕様](https://std.jpfhir.jp/stddoc/ePrescriptionDataFHIR_v1x.pdf)」表19 識別子名前空間一覧において医療機関等の患者IDとして割り当てられたOIDのURL型である。地域医療連携ネットワークの地域患者IDを指定する場合も同様に、地域患者IDを識別する名前空間（IHE ITI PIX等で使用されるOID等）をsystemに使用することができる。</t>
   </si>
   <si>
@@ -694,12 +696,12 @@
   </si>
   <si>
     <t>Identifier.system is always case sensitive.  
-IDの名前空間を表す。
-医療機関固有の患者ID（カルテNo）を表現する場合、system には、患者IDの発行者である医療機関を識別するuriを指定する。  
-医療機関を識別するために使用するOID について、もし適切なOID が存在しない場合で、その医療施設が保険医療機関の場合、特定健診・特定保健指導機関のルールに従い以下のルールで設定してもよい。  
-医療施設が固有のOID を持っている場合は、そのOID を指定する。医療施設が保険医療機関の場合、特定健診・特定保健指導機関の医療機関コードの OID「1.2.392.200119.6.102.」の末尾に「[1]＋医療機関コード（10 桁）」を指定する。医療機関コードを持たない場合、「[9]＋当該施設の電話番号下 9 桁」を医療機関コードとする。  
-例：医療機関コード「1312345670」の場合「1.2.392.200119.6.102.11312345670」  
-Patient.identifier.system は、uri 型のため、実際にインスタンスに設定される値は、上記の例であれば urn:oid:1.2.392.200119.6.102.11312345670 とする。</t>
+Patient.identifier.system には、urn:oid:1.2.392.100495.20.3.51.医療機関識別OID番号を使用する。  
+医療機関識別OID番号は患者IDの発行者である機関の医療機関コード（１０桁）の先頭に１をつけた11桁とする。医療機関コード（１０桁）の詳細は[こちらのリンク](StructureDefinition-jp-organization.html#医療機関コード１０桁)を参照すること。  
+```
+例：医療機関コード「1312345670」の場合「urn:oid:1.2.392.100495.20.3.51.11312345670」
+```
+なお、urn:oid:1.2.392.100495.20.3.51の部分は、「[処方情報 HL7FHIR 記述仕様](https://std.jpfhir.jp/stddoc/ePrescriptionDataFHIR_v1x.pdf)」表19 識別子名前空間一覧において医療機関等の患者IDとして割り当てられたOIDのURL型である。地域医療連携ネットワークの地域患者IDを指定する場合も同様に、地域患者IDを識別する名前空間（IHE ITI PIX等で使用されるOID等）をsystemに使用することができる。</t>
   </si>
   <si>
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>

--- a/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-patient.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-patient.xlsx
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>JP</t>
+    <t>Japan</t>
   </si>
   <si>
     <t>Description</t>

--- a/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-patient.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-patient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2803" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2803" uniqueCount="576">
   <si>
     <t>Property</t>
   </si>
@@ -267,10 +267,6 @@
   <si>
     <t>Demographics and other administrative information about an individual or animal receiving care or other health-related services.
 ケアまたはその他の健康関連サービスを受けている個人または動物に関する人口統計およびその他の管理情報。</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Patient[classCode=PAT]</t>
@@ -2616,13 +2612,13 @@
         <v>81</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="AK2" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="AL2" t="s" s="2">
         <v>81</v>
@@ -2636,7 +2632,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2647,28 +2643,28 @@
         <v>79</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2718,13 +2714,13 @@
         <v>81</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>81</v>
@@ -2750,7 +2746,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2761,25 +2757,25 @@
         <v>79</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2830,19 +2826,19 @@
         <v>81</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>99</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>100</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>81</v>
@@ -2862,7 +2858,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2873,28 +2869,28 @@
         <v>79</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2944,19 +2940,19 @@
         <v>81</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>81</v>
@@ -2976,7 +2972,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2987,7 +2983,7 @@
         <v>79</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>81</v>
@@ -2999,16 +2995,16 @@
         <v>81</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -3034,43 +3030,43 @@
         <v>81</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>115</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>81</v>
@@ -3090,18 +3086,18 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>81</v>
@@ -3113,16 +3109,16 @@
         <v>81</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -3172,22 +3168,22 @@
         <v>81</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>81</v>
@@ -3204,11 +3200,11 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -3227,16 +3223,16 @@
         <v>81</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -3286,7 +3282,7 @@
         <v>81</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>79</v>
@@ -3301,7 +3297,7 @@
         <v>81</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>81</v>
@@ -3318,7 +3314,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -3341,13 +3337,13 @@
         <v>81</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -3386,17 +3382,17 @@
         <v>81</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD9" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AE9" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>79</v>
@@ -3408,7 +3404,7 @@
         <v>81</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>81</v>
@@ -3428,10 +3424,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>81</v>
@@ -3453,16 +3449,16 @@
         <v>81</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="K10" t="s" s="2">
+      <c r="L10" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -3512,7 +3508,7 @@
         <v>81</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>79</v>
@@ -3521,10 +3517,10 @@
         <v>80</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>81</v>
@@ -3544,10 +3540,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>81</v>
@@ -3557,7 +3553,7 @@
         <v>79</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>81</v>
@@ -3569,16 +3565,16 @@
         <v>81</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -3628,7 +3624,7 @@
         <v>81</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>79</v>
@@ -3637,10 +3633,10 @@
         <v>80</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>81</v>
@@ -3660,10 +3656,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>81</v>
@@ -3685,16 +3681,16 @@
         <v>81</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -3744,7 +3740,7 @@
         <v>81</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>79</v>
@@ -3753,10 +3749,10 @@
         <v>80</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>81</v>
@@ -3776,11 +3772,11 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -3793,25 +3789,25 @@
         <v>81</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>81</v>
@@ -3860,7 +3856,7 @@
         <v>81</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>79</v>
@@ -3872,10 +3868,10 @@
         <v>81</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>81</v>
@@ -3892,7 +3888,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3900,7 +3896,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>80</v>
@@ -3912,22 +3908,22 @@
         <v>81</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>81</v>
@@ -3976,7 +3972,7 @@
         <v>81</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>79</v>
@@ -3988,19 +3984,19 @@
         <v>81</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ14" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="AK14" t="s" s="2">
+      <c r="AL14" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="AL14" t="s" s="2">
+      <c r="AM14" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>81</v>
@@ -4008,7 +4004,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -4019,7 +4015,7 @@
         <v>79</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>81</v>
@@ -4031,13 +4027,13 @@
         <v>81</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -4088,22 +4084,22 @@
         <v>81</v>
       </c>
       <c r="AE15" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>81</v>
@@ -4120,11 +4116,11 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -4143,16 +4139,16 @@
         <v>81</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L16" t="s" s="2">
-        <v>181</v>
-      </c>
       <c r="M16" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -4190,19 +4186,19 @@
         <v>81</v>
       </c>
       <c r="AA16" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD16" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="AB16" t="s" s="2">
+      <c r="AE16" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>79</v>
@@ -4214,10 +4210,10 @@
         <v>81</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>81</v>
@@ -4234,7 +4230,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -4245,31 +4241,31 @@
         <v>79</v>
       </c>
       <c r="F17" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H17" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="I17" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>81</v>
@@ -4294,47 +4290,47 @@
         <v>81</v>
       </c>
       <c r="W17" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="X17" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="X17" t="s" s="2">
+      <c r="Y17" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="Y17" t="s" s="2">
+      <c r="Z17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE17" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="Z17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE17" t="s" s="2">
+      <c r="AF17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="AF17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>193</v>
-      </c>
       <c r="AK17" t="s" s="2">
         <v>81</v>
       </c>
@@ -4342,7 +4338,7 @@
         <v>81</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>81</v>
@@ -4350,7 +4346,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -4361,31 +4357,31 @@
         <v>79</v>
       </c>
       <c r="F18" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I18" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J18" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>81</v>
@@ -4410,55 +4406,55 @@
         <v>81</v>
       </c>
       <c r="W18" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="X18" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="X18" t="s" s="2">
+      <c r="Y18" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="Y18" t="s" s="2">
+      <c r="Z18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE18" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="Z18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE18" t="s" s="2">
+      <c r="AF18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM18" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>81</v>
@@ -4466,7 +4462,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4477,31 +4473,31 @@
         <v>79</v>
       </c>
       <c r="F19" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I19" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J19" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>81</v>
@@ -4514,67 +4510,67 @@
         <v>81</v>
       </c>
       <c r="S19" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="T19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE19" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="T19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE19" t="s" s="2">
+      <c r="AF19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="AF19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
+      <c r="AK19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM19" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>81</v>
@@ -4582,7 +4578,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4590,31 +4586,31 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="F20" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I20" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="F20" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J20" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -4628,67 +4624,67 @@
         <v>81</v>
       </c>
       <c r="S20" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="T20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE20" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="T20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE20" t="s" s="2">
+      <c r="AF20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AF20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
+      <c r="AK20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM20" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>81</v>
@@ -4696,7 +4692,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4707,28 +4703,28 @@
         <v>79</v>
       </c>
       <c r="F21" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I21" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J21" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4778,31 +4774,31 @@
         <v>81</v>
       </c>
       <c r="AE21" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="AF21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
+      <c r="AK21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>81</v>
@@ -4810,7 +4806,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4821,28 +4817,28 @@
         <v>79</v>
       </c>
       <c r="F22" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I22" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J22" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4892,31 +4888,31 @@
         <v>81</v>
       </c>
       <c r="AE22" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="AF22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
+      <c r="AK22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>81</v>
@@ -4924,7 +4920,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4935,103 +4931,103 @@
         <v>79</v>
       </c>
       <c r="F23" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H23" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="I23" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="N23" t="s" s="2">
+      <c r="O23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P23" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="O23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="P23" t="s" s="2">
+      <c r="Q23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="Q23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="R23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
+      <c r="AK23" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>81</v>
@@ -5042,7 +5038,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -5065,19 +5061,19 @@
         <v>81</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>81</v>
@@ -5126,7 +5122,7 @@
         <v>81</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>79</v>
@@ -5135,22 +5131,22 @@
         <v>80</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ24" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM24" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>81</v>
@@ -5158,7 +5154,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5178,22 +5174,22 @@
         <v>81</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>81</v>
@@ -5242,7 +5238,7 @@
         <v>81</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>79</v>
@@ -5254,19 +5250,19 @@
         <v>81</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ25" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="AK25" t="s" s="2">
+      <c r="AL25" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>81</v>
@@ -5274,7 +5270,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5285,7 +5281,7 @@
         <v>79</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>81</v>
@@ -5297,13 +5293,13 @@
         <v>81</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -5354,22 +5350,22 @@
         <v>81</v>
       </c>
       <c r="AE26" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>81</v>
@@ -5386,11 +5382,11 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -5409,16 +5405,16 @@
         <v>81</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L27" t="s" s="2">
-        <v>181</v>
-      </c>
       <c r="M27" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -5456,19 +5452,19 @@
         <v>81</v>
       </c>
       <c r="AA27" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD27" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="AB27" t="s" s="2">
+      <c r="AE27" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>79</v>
@@ -5480,10 +5476,10 @@
         <v>81</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>81</v>
@@ -5500,7 +5496,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5511,28 +5507,28 @@
         <v>79</v>
       </c>
       <c r="F28" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I28" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J28" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5558,55 +5554,55 @@
         <v>81</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="X28" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="Y28" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="Y28" t="s" s="2">
+      <c r="Z28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE28" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="Z28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE28" t="s" s="2">
+      <c r="AF28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH28" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="AF28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH28" t="s" s="2">
+      <c r="AI28" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="AI28" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
+      <c r="AK28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>81</v>
@@ -5614,7 +5610,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5625,31 +5621,31 @@
         <v>79</v>
       </c>
       <c r="F29" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I29" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J29" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>81</v>
@@ -5698,31 +5694,31 @@
         <v>81</v>
       </c>
       <c r="AE29" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="AF29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
+      <c r="AK29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>81</v>
@@ -5730,7 +5726,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5741,31 +5737,31 @@
         <v>79</v>
       </c>
       <c r="F30" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H30" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H30" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="I30" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>81</v>
@@ -5790,55 +5786,55 @@
         <v>81</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="X30" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="Y30" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="Y30" t="s" s="2">
+      <c r="Z30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE30" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="Z30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE30" t="s" s="2">
+      <c r="AF30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="AF30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
+      <c r="AK30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM30" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>81</v>
@@ -5846,7 +5842,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5857,28 +5853,28 @@
         <v>79</v>
       </c>
       <c r="F31" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I31" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J31" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5928,22 +5924,22 @@
         <v>81</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>81</v>
@@ -5952,7 +5948,7 @@
         <v>81</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>81</v>
@@ -5960,7 +5956,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5971,28 +5967,28 @@
         <v>79</v>
       </c>
       <c r="F32" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I32" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J32" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -6042,23 +6038,23 @@
         <v>81</v>
       </c>
       <c r="AE32" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="AF32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>305</v>
-      </c>
       <c r="AK32" t="s" s="2">
         <v>81</v>
       </c>
@@ -6066,7 +6062,7 @@
         <v>81</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>81</v>
@@ -6074,7 +6070,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6085,31 +6081,31 @@
         <v>79</v>
       </c>
       <c r="F33" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I33" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G33" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J33" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>81</v>
@@ -6134,55 +6130,55 @@
         <v>81</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="X33" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="Y33" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="Y33" t="s" s="2">
+      <c r="Z33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="Z33" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
+      <c r="AK33" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="AK33" t="s" s="2">
+      <c r="AL33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>81</v>
@@ -6190,7 +6186,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6201,31 +6197,31 @@
         <v>79</v>
       </c>
       <c r="F34" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I34" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G34" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J34" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="K34" t="s" s="2">
+      <c r="L34" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>81</v>
@@ -6274,39 +6270,39 @@
         <v>81</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ34" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AK34" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="AK34" t="s" s="2">
+      <c r="AL34" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="AL34" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM34" t="s" s="2">
+      <c r="AN34" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>325</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6317,31 +6313,31 @@
         <v>79</v>
       </c>
       <c r="F35" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H35" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G35" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="I35" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>81</v>
@@ -6390,31 +6386,31 @@
         <v>81</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>81</v>
@@ -6422,7 +6418,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6442,22 +6438,22 @@
         <v>81</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>81</v>
@@ -6506,7 +6502,7 @@
         <v>81</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>79</v>
@@ -6518,19 +6514,19 @@
         <v>81</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="AK36" t="s" s="2">
+      <c r="AL36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>81</v>
@@ -6538,7 +6534,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6549,7 +6545,7 @@
         <v>79</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>81</v>
@@ -6561,13 +6557,13 @@
         <v>81</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6618,22 +6614,22 @@
         <v>81</v>
       </c>
       <c r="AE37" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>81</v>
@@ -6650,11 +6646,11 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6673,16 +6669,16 @@
         <v>81</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L38" t="s" s="2">
-        <v>181</v>
-      </c>
       <c r="M38" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6720,19 +6716,19 @@
         <v>81</v>
       </c>
       <c r="AA38" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD38" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="AB38" t="s" s="2">
+      <c r="AE38" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>79</v>
@@ -6744,10 +6740,10 @@
         <v>81</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>81</v>
@@ -6764,7 +6760,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6775,31 +6771,31 @@
         <v>79</v>
       </c>
       <c r="F39" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H39" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="I39" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>81</v>
@@ -6812,67 +6808,67 @@
         <v>81</v>
       </c>
       <c r="S39" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="X39" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="T39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W39" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="X39" t="s" s="2">
+      <c r="Y39" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="Y39" t="s" s="2">
+      <c r="Z39" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE39" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="Z39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE39" t="s" s="2">
+      <c r="AF39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM39" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>81</v>
@@ -6880,7 +6876,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6891,28 +6887,28 @@
         <v>79</v>
       </c>
       <c r="F40" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I40" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J40" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6926,67 +6922,67 @@
         <v>81</v>
       </c>
       <c r="S40" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="X40" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="T40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W40" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="X40" t="s" s="2">
+      <c r="Y40" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="Y40" t="s" s="2">
+      <c r="Z40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE40" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="Z40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE40" t="s" s="2">
+      <c r="AF40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM40" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>81</v>
@@ -6994,7 +6990,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -7005,31 +7001,31 @@
         <v>79</v>
       </c>
       <c r="F41" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I41" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G41" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J41" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>81</v>
@@ -7042,67 +7038,67 @@
         <v>81</v>
       </c>
       <c r="S41" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE41" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="T41" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U41" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V41" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W41" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE41" t="s" s="2">
+      <c r="AF41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="AF41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
+      <c r="AK41" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM41" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>81</v>
@@ -7110,7 +7106,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7130,19 +7126,19 @@
         <v>81</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -7156,43 +7152,43 @@
         <v>81</v>
       </c>
       <c r="S42" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE42" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="T42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>79</v>
@@ -7204,19 +7200,19 @@
         <v>81</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM42" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>81</v>
@@ -7224,39 +7220,39 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F43" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I43" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J43" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -7270,67 +7266,67 @@
         <v>81</v>
       </c>
       <c r="S43" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE43" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="T43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE43" t="s" s="2">
+      <c r="AF43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="AF43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
+      <c r="AK43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM43" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>81</v>
@@ -7338,39 +7334,39 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F44" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I44" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J44" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7384,67 +7380,67 @@
         <v>81</v>
       </c>
       <c r="S44" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE44" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="T44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE44" t="s" s="2">
+      <c r="AF44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="AF44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
+      <c r="AK44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM44" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>81</v>
@@ -7452,39 +7448,39 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F45" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I45" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J45" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -7534,31 +7530,31 @@
         <v>81</v>
       </c>
       <c r="AE45" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="AF45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
+      <c r="AK45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM45" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>81</v>
@@ -7566,39 +7562,39 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F46" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I46" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J46" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7612,67 +7608,67 @@
         <v>81</v>
       </c>
       <c r="S46" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE46" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="T46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE46" t="s" s="2">
+      <c r="AF46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="AF46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
+      <c r="AK46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM46" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>81</v>
@@ -7680,7 +7676,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7691,28 +7687,28 @@
         <v>79</v>
       </c>
       <c r="F47" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I47" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J47" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7762,31 +7758,31 @@
         <v>81</v>
       </c>
       <c r="AE47" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="AF47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
+      <c r="AK47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM47" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>422</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>81</v>
@@ -7794,7 +7790,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7805,31 +7801,31 @@
         <v>79</v>
       </c>
       <c r="F48" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I48" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J48" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>427</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>81</v>
@@ -7842,67 +7838,67 @@
         <v>81</v>
       </c>
       <c r="S48" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE48" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="T48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE48" t="s" s="2">
+      <c r="AF48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM48" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>430</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>81</v>
@@ -7910,7 +7906,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7921,7 +7917,7 @@
         <v>79</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>81</v>
@@ -7933,19 +7929,19 @@
         <v>81</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>434</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>435</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>81</v>
@@ -7970,55 +7966,55 @@
         <v>81</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="X49" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="Y49" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="Y49" t="s" s="2">
+      <c r="Z49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="Z49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
+      <c r="AK49" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="AK49" t="s" s="2">
+      <c r="AL49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM49" t="s" s="2">
         <v>439</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>81</v>
@@ -8026,7 +8022,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -8037,7 +8033,7 @@
         <v>79</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>81</v>
@@ -8049,19 +8045,19 @@
         <v>81</v>
       </c>
       <c r="J50" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="K50" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="K50" t="s" s="2">
+      <c r="L50" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>445</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>446</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>81</v>
@@ -8110,31 +8106,31 @@
         <v>81</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ50" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM50" t="s" s="2">
         <v>447</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>448</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>81</v>
@@ -8142,7 +8138,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8165,19 +8161,19 @@
         <v>81</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="K51" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="K51" t="s" s="2">
+      <c r="L51" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>454</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>81</v>
@@ -8226,7 +8222,7 @@
         <v>81</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>79</v>
@@ -8238,19 +8234,19 @@
         <v>81</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ51" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM51" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>456</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>81</v>
@@ -8258,7 +8254,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8281,19 +8277,19 @@
         <v>81</v>
       </c>
       <c r="J52" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="K52" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="K52" t="s" s="2">
+      <c r="L52" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>462</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>81</v>
@@ -8342,7 +8338,7 @@
         <v>81</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>79</v>
@@ -8354,13 +8350,13 @@
         <v>81</v>
       </c>
       <c r="AI52" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="AJ52" t="s" s="2">
-        <v>464</v>
-      </c>
       <c r="AK52" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>81</v>
@@ -8374,7 +8370,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8385,7 +8381,7 @@
         <v>79</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>81</v>
@@ -8397,13 +8393,13 @@
         <v>81</v>
       </c>
       <c r="J53" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="K53" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="K53" t="s" s="2">
+      <c r="L53" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -8454,22 +8450,22 @@
         <v>81</v>
       </c>
       <c r="AE53" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>81</v>
@@ -8486,11 +8482,11 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -8509,16 +8505,16 @@
         <v>81</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L54" t="s" s="2">
-        <v>181</v>
-      </c>
       <c r="M54" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -8568,7 +8564,7 @@
         <v>81</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>79</v>
@@ -8580,10 +8576,10 @@
         <v>81</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>81</v>
@@ -8600,11 +8596,11 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8617,25 +8613,25 @@
         <v>81</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="L55" t="s" s="2">
-        <v>470</v>
-      </c>
       <c r="M55" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N55" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>81</v>
@@ -8684,7 +8680,7 @@
         <v>81</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>79</v>
@@ -8696,10 +8692,10 @@
         <v>81</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>81</v>
@@ -8716,7 +8712,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8739,19 +8735,19 @@
         <v>81</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="M56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>475</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>476</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>81</v>
@@ -8776,14 +8772,14 @@
         <v>81</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="X56" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="Y56" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="Y56" t="s" s="2">
-        <v>478</v>
-      </c>
       <c r="Z56" t="s" s="2">
         <v>81</v>
       </c>
@@ -8800,7 +8796,7 @@
         <v>81</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>79</v>
@@ -8812,19 +8808,19 @@
         <v>81</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ56" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM56" t="s" s="2">
         <v>479</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>480</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>81</v>
@@ -8832,7 +8828,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8843,7 +8839,7 @@
         <v>79</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>81</v>
@@ -8855,17 +8851,17 @@
         <v>81</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="K57" t="s" s="2">
+      <c r="L57" t="s" s="2">
         <v>483</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>484</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>81</v>
@@ -8914,31 +8910,31 @@
         <v>81</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ57" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM57" t="s" s="2">
         <v>486</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>487</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>81</v>
@@ -8946,7 +8942,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8969,19 +8965,19 @@
         <v>81</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>490</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>491</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>492</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>81</v>
@@ -9030,7 +9026,7 @@
         <v>81</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>79</v>
@@ -9042,19 +9038,19 @@
         <v>81</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>81</v>
@@ -9062,7 +9058,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9073,7 +9069,7 @@
         <v>79</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>81</v>
@@ -9085,17 +9081,17 @@
         <v>81</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>495</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>496</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>81</v>
@@ -9144,31 +9140,31 @@
         <v>81</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>81</v>
@@ -9176,7 +9172,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9187,7 +9183,7 @@
         <v>79</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>81</v>
@@ -9199,17 +9195,17 @@
         <v>81</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>81</v>
@@ -9234,55 +9230,55 @@
         <v>81</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="X60" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="Y60" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="Y60" t="s" s="2">
+      <c r="Z60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="Z60" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>313</v>
-      </c>
       <c r="AK60" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>81</v>
@@ -9290,7 +9286,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9301,7 +9297,7 @@
         <v>79</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>81</v>
@@ -9313,19 +9309,19 @@
         <v>81</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>505</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>506</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>507</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>81</v>
@@ -9374,31 +9370,31 @@
         <v>81</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH61" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
         <v>508</v>
       </c>
-      <c r="AI61" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
+      <c r="AK61" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM61" t="s" s="2">
         <v>509</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>510</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>81</v>
@@ -9406,7 +9402,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9417,7 +9413,7 @@
         <v>79</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>81</v>
@@ -9429,13 +9425,13 @@
         <v>81</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>512</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>513</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -9486,25 +9482,25 @@
         <v>81</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>81</v>
@@ -9518,7 +9514,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9541,19 +9537,19 @@
         <v>81</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>517</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>518</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>519</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>81</v>
@@ -9602,7 +9598,7 @@
         <v>81</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>79</v>
@@ -9614,13 +9610,13 @@
         <v>81</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ63" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="AK63" t="s" s="2">
         <v>520</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>521</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>81</v>
@@ -9634,7 +9630,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9645,7 +9641,7 @@
         <v>79</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>81</v>
@@ -9657,13 +9653,13 @@
         <v>81</v>
       </c>
       <c r="J64" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="K64" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="K64" t="s" s="2">
+      <c r="L64" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9714,22 +9710,22 @@
         <v>81</v>
       </c>
       <c r="AE64" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>81</v>
@@ -9746,11 +9742,11 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -9769,16 +9765,16 @@
         <v>81</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L65" t="s" s="2">
-        <v>181</v>
-      </c>
       <c r="M65" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9828,7 +9824,7 @@
         <v>81</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>79</v>
@@ -9840,10 +9836,10 @@
         <v>81</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>81</v>
@@ -9860,11 +9856,11 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9877,25 +9873,25 @@
         <v>81</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="L66" t="s" s="2">
-        <v>470</v>
-      </c>
       <c r="M66" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N66" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>81</v>
@@ -9944,7 +9940,7 @@
         <v>81</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>79</v>
@@ -9956,10 +9952,10 @@
         <v>81</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>81</v>
@@ -9976,7 +9972,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9984,10 +9980,10 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>81</v>
@@ -9999,19 +9995,19 @@
         <v>81</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>526</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>527</v>
       </c>
-      <c r="M67" t="s" s="2">
+      <c r="N67" t="s" s="2">
         <v>528</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>529</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>81</v>
@@ -10036,14 +10032,14 @@
         <v>81</v>
       </c>
       <c r="W67" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="X67" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="X67" t="s" s="2">
+      <c r="Y67" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="Y67" t="s" s="2">
-        <v>114</v>
-      </c>
       <c r="Z67" t="s" s="2">
         <v>81</v>
       </c>
@@ -10060,31 +10056,31 @@
         <v>81</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ67" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="AK67" t="s" s="2">
         <v>530</v>
       </c>
-      <c r="AK67" t="s" s="2">
+      <c r="AL67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM67" t="s" s="2">
         <v>531</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>532</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>81</v>
@@ -10092,7 +10088,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10103,7 +10099,7 @@
         <v>79</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>81</v>
@@ -10115,19 +10111,19 @@
         <v>81</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="M68" t="s" s="2">
+      <c r="N68" t="s" s="2">
         <v>536</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>537</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>81</v>
@@ -10176,31 +10172,31 @@
         <v>81</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ68" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="AK68" t="s" s="2">
         <v>538</v>
       </c>
-      <c r="AK68" t="s" s="2">
+      <c r="AL68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM68" t="s" s="2">
         <v>539</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>540</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>81</v>
@@ -10208,11 +10204,11 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -10231,16 +10227,16 @@
         <v>81</v>
       </c>
       <c r="J69" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="K69" t="s" s="2">
         <v>543</v>
       </c>
-      <c r="K69" t="s" s="2">
+      <c r="L69" t="s" s="2">
         <v>544</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="M69" t="s" s="2">
         <v>545</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>546</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -10290,7 +10286,7 @@
         <v>81</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>79</v>
@@ -10302,19 +10298,19 @@
         <v>81</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ69" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM69" t="s" s="2">
         <v>547</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>548</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>81</v>
@@ -10322,7 +10318,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10333,31 +10329,31 @@
         <v>79</v>
       </c>
       <c r="F70" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I70" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J70" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>550</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="M70" t="s" s="2">
         <v>551</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>552</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>553</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>81</v>
@@ -10406,25 +10402,25 @@
         <v>81</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>81</v>
@@ -10438,7 +10434,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10455,25 +10451,25 @@
         <v>81</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>556</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="M71" t="s" s="2">
         <v>557</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>558</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>559</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>81</v>
@@ -10522,7 +10518,7 @@
         <v>81</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>79</v>
@@ -10534,13 +10530,13 @@
         <v>81</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>81</v>
@@ -10554,7 +10550,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10565,7 +10561,7 @@
         <v>79</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>81</v>
@@ -10577,13 +10573,13 @@
         <v>81</v>
       </c>
       <c r="J72" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="K72" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="K72" t="s" s="2">
+      <c r="L72" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -10634,22 +10630,22 @@
         <v>81</v>
       </c>
       <c r="AE72" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>81</v>
@@ -10666,11 +10662,11 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10689,16 +10685,16 @@
         <v>81</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L73" t="s" s="2">
-        <v>181</v>
-      </c>
       <c r="M73" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -10748,7 +10744,7 @@
         <v>81</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>79</v>
@@ -10760,10 +10756,10 @@
         <v>81</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>81</v>
@@ -10780,11 +10776,11 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10797,25 +10793,25 @@
         <v>81</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="L74" t="s" s="2">
-        <v>470</v>
-      </c>
       <c r="M74" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N74" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>81</v>
@@ -10864,7 +10860,7 @@
         <v>81</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>79</v>
@@ -10876,10 +10872,10 @@
         <v>81</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>81</v>
@@ -10896,7 +10892,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10904,31 +10900,31 @@
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I75" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="F75" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J75" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="K75" t="s" s="2">
         <v>565</v>
       </c>
-      <c r="K75" t="s" s="2">
+      <c r="L75" t="s" s="2">
         <v>566</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>567</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>568</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -10978,31 +10974,31 @@
         <v>81</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>81</v>
@@ -11010,7 +11006,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11018,31 +11014,31 @@
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I76" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="F76" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J76" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>571</v>
       </c>
-      <c r="L76" t="s" s="2">
+      <c r="M76" t="s" s="2">
         <v>572</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>573</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -11068,49 +11064,49 @@
         <v>81</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="X76" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="Y76" t="s" s="2">
         <v>574</v>
       </c>
-      <c r="Y76" t="s" s="2">
+      <c r="Z76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
         <v>575</v>
       </c>
-      <c r="Z76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>576</v>
-      </c>
       <c r="AK76" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>81</v>
